--- a/data/trans_orig/ESTUDIOS-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>303606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>280836</v>
+        <v>280775</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>323946</v>
+        <v>323375</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6408210254507382</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5927615289940696</v>
+        <v>0.5926325866858377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6837524883500329</v>
+        <v>0.6825492307270141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>237</v>
@@ -765,19 +765,19 @@
         <v>245277</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>229883</v>
+        <v>229022</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>258383</v>
+        <v>257223</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7997824248838599</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7495857276414891</v>
+        <v>0.7467782199391229</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8425182596310636</v>
+        <v>0.8387328817130647</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>525</v>
@@ -786,19 +786,19 @@
         <v>548884</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>521820</v>
+        <v>520422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>574387</v>
+        <v>573647</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7032848821337916</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6686082827027092</v>
+        <v>0.6668165301800925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.735962073917512</v>
+        <v>0.7350140643360106</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>110461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91166</v>
+        <v>92822</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>129898</v>
+        <v>130183</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2331511582379052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1924247838015755</v>
+        <v>0.1959203981761186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2741761386653518</v>
+        <v>0.2747785273765146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -836,19 +836,19 @@
         <v>44351</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32835</v>
+        <v>33267</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57469</v>
+        <v>58797</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1446177469638402</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1070656850894003</v>
+        <v>0.1084745827554071</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1873914061777809</v>
+        <v>0.1917201720915271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -857,19 +857,19 @@
         <v>154813</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>131092</v>
+        <v>132375</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177608</v>
+        <v>178512</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1983619683263527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1679677767412951</v>
+        <v>0.1696118177406699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2275690589233645</v>
+        <v>0.2287279829876016</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>59709</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47033</v>
+        <v>47197</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75689</v>
+        <v>75790</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1260278163113566</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09927188705345631</v>
+        <v>0.09961866517641522</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1597570160640661</v>
+        <v>0.1599708462179786</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -907,19 +907,19 @@
         <v>17051</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10193</v>
+        <v>9925</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26786</v>
+        <v>26265</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05559982815229997</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03323591231570334</v>
+        <v>0.03236376298043232</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08734124621527478</v>
+        <v>0.08564410915051092</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -928,19 +928,19 @@
         <v>76760</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61698</v>
+        <v>62159</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>93621</v>
+        <v>94829</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09835314953985569</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07905361175943085</v>
+        <v>0.07964495216855923</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1199568442406068</v>
+        <v>0.1215041999092035</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>102524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86077</v>
+        <v>85276</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>122047</v>
+        <v>119623</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2794071092770558</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2345834954522761</v>
+        <v>0.2324010962925976</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3326116813176134</v>
+        <v>0.3260063875695751</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>99</v>
@@ -1053,19 +1053,19 @@
         <v>104847</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>87635</v>
+        <v>88564</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>122954</v>
+        <v>122209</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2819487506496057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2356625103638592</v>
+        <v>0.2381628964745028</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3306418838929553</v>
+        <v>0.3286379448840032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>197</v>
@@ -1074,19 +1074,19 @@
         <v>207371</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>181107</v>
+        <v>182977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>231549</v>
+        <v>232042</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2806864113880859</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.245137167219959</v>
+        <v>0.2476676422080774</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3134130915403459</v>
+        <v>0.3140802273978127</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>223446</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>202499</v>
+        <v>204637</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>240966</v>
+        <v>244836</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6089547281203402</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5518668845611059</v>
+        <v>0.5576949448730676</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6567012403946979</v>
+        <v>0.6672481495472136</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>245</v>
@@ -1124,19 +1124,19 @@
         <v>246902</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>228092</v>
+        <v>229038</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>265452</v>
+        <v>264186</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6639561890538005</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6133736163300603</v>
+        <v>0.6159174173278613</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.713840502104173</v>
+        <v>0.710434091897689</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>455</v>
@@ -1145,19 +1145,19 @@
         <v>470348</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>445669</v>
+        <v>442119</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>496963</v>
+        <v>497197</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6366389977587921</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6032349900237355</v>
+        <v>0.5984288971386629</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6726626614513566</v>
+        <v>0.6729803348315249</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>40964</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30783</v>
+        <v>29155</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55366</v>
+        <v>54140</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.111638162602604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08389192394760618</v>
+        <v>0.07945584031088963</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1508868084258909</v>
+        <v>0.147545944530393</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1195,19 +1195,19 @@
         <v>20116</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12669</v>
+        <v>12819</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31442</v>
+        <v>30830</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05409506029659384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03406991448619959</v>
+        <v>0.03447290735144342</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08455160834161214</v>
+        <v>0.08290728547879365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1216,19 +1216,19 @@
         <v>61080</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46952</v>
+        <v>47424</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77140</v>
+        <v>76523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08267459085312209</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06355155475146167</v>
+        <v>0.06419079491594581</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1044128765014388</v>
+        <v>0.1035781108813636</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>50965</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37402</v>
+        <v>36533</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65948</v>
+        <v>66086</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09396447058746771</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06895874024493406</v>
+        <v>0.0673561919753296</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1215873576007622</v>
+        <v>0.12184271638311</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1341,19 +1341,19 @@
         <v>9449</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4455</v>
+        <v>4126</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16339</v>
+        <v>16535</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05631571357093645</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02654978070597354</v>
+        <v>0.02458883710572526</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09738386860519423</v>
+        <v>0.09854981764605808</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>56</v>
@@ -1362,19 +1362,19 @@
         <v>60414</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>46899</v>
+        <v>46474</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>80998</v>
+        <v>78309</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08506973924224565</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06603837060999426</v>
+        <v>0.06544114011861972</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1140548189912835</v>
+        <v>0.1102676315807571</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>340748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>316946</v>
+        <v>318313</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>363110</v>
+        <v>364211</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6282354063998679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5843520477708074</v>
+        <v>0.5868729310789382</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6694645110590093</v>
+        <v>0.6714933449551781</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -1412,19 +1412,19 @@
         <v>111312</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99743</v>
+        <v>98564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123289</v>
+        <v>123127</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6634322323934746</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5944804782512302</v>
+        <v>0.5874515843237741</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7348165286386008</v>
+        <v>0.7338490849078263</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>441</v>
@@ -1433,19 +1433,19 @@
         <v>452060</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>426279</v>
+        <v>426553</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>479003</v>
+        <v>475729</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6365508552015426</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6002478357065012</v>
+        <v>0.6006335856538582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6744890629091291</v>
+        <v>0.6698800630425781</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>150676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130724</v>
+        <v>130537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172709</v>
+        <v>171245</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2778001230126645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2410153937623971</v>
+        <v>0.2406707959020995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3184220309895037</v>
+        <v>0.3157243504928503</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -1483,19 +1483,19 @@
         <v>47021</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36145</v>
+        <v>35505</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59435</v>
+        <v>60127</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2802520540355889</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2154269779613581</v>
+        <v>0.2116115007139867</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3542366799423717</v>
+        <v>0.3583656939275785</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>199</v>
@@ -1504,19 +1504,19 @@
         <v>197697</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>174065</v>
+        <v>176501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222499</v>
+        <v>221421</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2783794055562117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2451032143925337</v>
+        <v>0.248533187036387</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3133040359353323</v>
+        <v>0.311785515762241</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>47781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34452</v>
+        <v>34310</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62089</v>
+        <v>63159</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0385850805847562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02782147383446605</v>
+        <v>0.02770651268263577</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05013901497511677</v>
+        <v>0.05100291508829464</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -1629,19 +1629,19 @@
         <v>47907</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34100</v>
+        <v>36214</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62835</v>
+        <v>65380</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06707007988283492</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04773965227134032</v>
+        <v>0.05069920131223974</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08796848154973322</v>
+        <v>0.09153223913678067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -1650,19 +1650,19 @@
         <v>95688</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77839</v>
+        <v>76709</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117390</v>
+        <v>117441</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04900514180298086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03986366635221711</v>
+        <v>0.03928492546121168</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06011917901484676</v>
+        <v>0.06014539600068061</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>620215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>586185</v>
+        <v>583351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>658274</v>
+        <v>658842</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5008461107172832</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4733661682983715</v>
+        <v>0.4710771613831173</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.531580542998909</v>
+        <v>0.5320391119243836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>408</v>
@@ -1700,19 +1700,19 @@
         <v>419828</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>391060</v>
+        <v>392527</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>445515</v>
+        <v>444634</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5877596172713381</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5474849626112989</v>
+        <v>0.549538458246424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6237221056022771</v>
+        <v>0.6224875360316704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1009</v>
@@ -1721,19 +1721,19 @@
         <v>1040043</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>997169</v>
+        <v>989487</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1085853</v>
+        <v>1078680</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5326398295623073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5106824329082218</v>
+        <v>0.5067484626401948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5561003152715775</v>
+        <v>0.5524267718987373</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>570338</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>532392</v>
+        <v>534632</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>602840</v>
+        <v>609325</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4605688086979605</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4299262610205204</v>
+        <v>0.4317345488266806</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4868151553775872</v>
+        <v>0.4920525990057117</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>243</v>
@@ -1771,19 +1771,19 @@
         <v>246550</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>221595</v>
+        <v>220532</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>273858</v>
+        <v>272293</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3451703028458269</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3102338867557315</v>
+        <v>0.3087454238454422</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3834019868868437</v>
+        <v>0.3812109319870601</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>819</v>
@@ -1792,19 +1792,19 @@
         <v>816888</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>768941</v>
+        <v>775204</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>858970</v>
+        <v>865165</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4183550286347118</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3937997397487464</v>
+        <v>0.3970073040249532</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4399064292524118</v>
+        <v>0.443078851506971</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>11177</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6250</v>
+        <v>5416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21420</v>
+        <v>19498</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0318831777224788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01782791080306721</v>
+        <v>0.01545034485624714</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06110341611332389</v>
+        <v>0.05561963921899311</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1917,19 +1917,19 @@
         <v>7644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2999</v>
+        <v>3062</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16104</v>
+        <v>16402</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01343908804889566</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005272262623155442</v>
+        <v>0.005383535060154606</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02831430322147665</v>
+        <v>0.02883780890608067</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1938,19 +1938,19 @@
         <v>18820</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11361</v>
+        <v>11283</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30314</v>
+        <v>29752</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0204722902893017</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01235813477041857</v>
+        <v>0.01227337296216835</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03297429706848006</v>
+        <v>0.03236359570485835</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>170962</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>153869</v>
+        <v>152800</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>190846</v>
+        <v>190460</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4876880950075866</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4389292082027092</v>
+        <v>0.4358800072846411</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.544412071975327</v>
+        <v>0.543308677094139</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>252</v>
@@ -1988,19 +1988,19 @@
         <v>270524</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>246616</v>
+        <v>244409</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>293973</v>
+        <v>292115</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4756453562040253</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4336089426362094</v>
+        <v>0.4297289131421237</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5168734860169265</v>
+        <v>0.513607134667341</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>415</v>
@@ -2009,19 +2009,19 @@
         <v>441486</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>413269</v>
+        <v>409089</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>473924</v>
+        <v>471661</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4802375599415263</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4495435481914445</v>
+        <v>0.444996947813748</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5155225885749424</v>
+        <v>0.5130618961746682</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>168417</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>148845</v>
+        <v>148687</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185744</v>
+        <v>186583</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4804287272699346</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4245978087734573</v>
+        <v>0.424147926323911</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5298583330584039</v>
+        <v>0.5322510282455852</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>281</v>
@@ -2059,19 +2059,19 @@
         <v>290584</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>267611</v>
+        <v>269477</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>315538</v>
+        <v>315947</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.510915555747079</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4705232389560602</v>
+        <v>0.4738040114581384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5547908179131017</v>
+        <v>0.5555101109953223</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>447</v>
@@ -2080,19 +2080,19 @@
         <v>459001</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>425743</v>
+        <v>430395</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>486591</v>
+        <v>492529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.499290149769172</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4631132544476935</v>
+        <v>0.4681735378167273</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5293017295838247</v>
+        <v>0.5357611078544805</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>33382</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23020</v>
+        <v>23372</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45157</v>
+        <v>43758</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1119457264394204</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0771976355577336</v>
+        <v>0.07837754277314135</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1514303372026495</v>
+        <v>0.1467416168682706</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>58</v>
@@ -2205,19 +2205,19 @@
         <v>61288</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47229</v>
+        <v>48291</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>79104</v>
+        <v>77170</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04907892548704273</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03782088852626925</v>
+        <v>0.03867077146687417</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06334636616106365</v>
+        <v>0.06179718451841722</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>91</v>
@@ -2226,19 +2226,19 @@
         <v>94670</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>76080</v>
+        <v>77249</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>115382</v>
+        <v>113636</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06119747411272042</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04918053582429929</v>
+        <v>0.04993586369948444</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0745865091341332</v>
+        <v>0.07345734630172061</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>225008</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>209071</v>
+        <v>210205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>238643</v>
+        <v>239530</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7545505744148082</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7011078566758481</v>
+        <v>0.7049109308970878</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8002768549781174</v>
+        <v>0.8032511621887528</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>497</v>
@@ -2276,19 +2276,19 @@
         <v>494756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>464241</v>
+        <v>460063</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>529259</v>
+        <v>526617</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3961974645695966</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3717614128126512</v>
+        <v>0.3684158998137124</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4238272645836368</v>
+        <v>0.4217116267017074</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>730</v>
@@ -2297,19 +2297,19 @@
         <v>719763</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>677069</v>
+        <v>679828</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>755851</v>
+        <v>758745</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4652755713132764</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4376773436428098</v>
+        <v>0.4394609407394108</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4886040914811599</v>
+        <v>0.4904746689251787</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>39811</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29180</v>
+        <v>29230</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51897</v>
+        <v>52794</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1335036991457715</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09785186238146644</v>
+        <v>0.09802096278447545</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1740342603799568</v>
+        <v>0.17704063721332</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>683</v>
@@ -2347,19 +2347,19 @@
         <v>692717</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>658742</v>
+        <v>658302</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>726141</v>
+        <v>727142</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5547236099433606</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5275167350868877</v>
+        <v>0.5271641991761046</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5814897756668702</v>
+        <v>0.5822914255442745</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>723</v>
@@ -2368,19 +2368,19 @@
         <v>732527</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>694201</v>
+        <v>692333</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>773908</v>
+        <v>774020</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4735269545740032</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4487518804136982</v>
+        <v>0.4475442728808546</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.500276959125432</v>
+        <v>0.5003489027570867</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>549436</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>506383</v>
+        <v>506578</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>596002</v>
+        <v>592253</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1680133334328742</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1548481900463998</v>
+        <v>0.1549077794400561</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1822530809224594</v>
+        <v>0.1811064597081629</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>452</v>
@@ -2493,19 +2493,19 @@
         <v>476412</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>436772</v>
+        <v>437897</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>520536</v>
+        <v>518218</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1410284560362833</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1292943540872936</v>
+        <v>0.1296272186871782</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1540903705583847</v>
+        <v>0.1534040727237775</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>976</v>
@@ -2514,19 +2514,19 @@
         <v>1025847</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>971906</v>
+        <v>974323</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1091748</v>
+        <v>1087372</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1543018477447269</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1461883162442201</v>
+        <v>0.1465518424921134</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1642142947376864</v>
+        <v>0.1635560764563624</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>1690840</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1633882</v>
+        <v>1635458</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1748867</v>
+        <v>1747076</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5170463886286326</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4996289219036159</v>
+        <v>0.5001111366662566</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5347905880443727</v>
+        <v>0.5342428746808586</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1554</v>
@@ -2564,19 +2564,19 @@
         <v>1587673</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1527523</v>
+        <v>1530604</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1643070</v>
+        <v>1648014</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4699865986026787</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.452180960465375</v>
+        <v>0.4530928582955908</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4863852010384266</v>
+        <v>0.4878487462624068</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3201</v>
@@ -2585,19 +2585,19 @@
         <v>3278513</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3198069</v>
+        <v>3190248</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3365254</v>
+        <v>3354315</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4931344905701444</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4810346129280632</v>
+        <v>0.4798581886084984</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5061815017618754</v>
+        <v>0.5045362144548907</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>1029915</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>975127</v>
+        <v>978396</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1083432</v>
+        <v>1083488</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3149402779384932</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2981867944660772</v>
+        <v>0.2991862595924122</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3313054829308509</v>
+        <v>0.331322615573826</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1290</v>
@@ -2635,19 +2635,19 @@
         <v>1314039</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1256110</v>
+        <v>1257407</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1372718</v>
+        <v>1369967</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.388984945361038</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3718364608151055</v>
+        <v>0.3722205282224375</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4063551854549199</v>
+        <v>0.4055407653535792</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2326</v>
@@ -2656,19 +2656,19 @@
         <v>2343954</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2272705</v>
+        <v>2270094</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2421706</v>
+        <v>2422855</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3525636616851288</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.341846891582883</v>
+        <v>0.3414541474950037</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3642586697453873</v>
+        <v>0.3644315290338476</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>245832</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>226163</v>
+        <v>225436</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268782</v>
+        <v>266517</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5622733929225762</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5172863370399331</v>
+        <v>0.515623690395004</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6147641339292601</v>
+        <v>0.6095841445919854</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>206</v>
@@ -3023,19 +3023,19 @@
         <v>231030</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>214058</v>
+        <v>214766</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>246816</v>
+        <v>246282</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7347017882474789</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.680728550320062</v>
+        <v>0.6829802888882335</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7849033269374708</v>
+        <v>0.7832045206334045</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>435</v>
@@ -3044,19 +3044,19 @@
         <v>476862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>449150</v>
+        <v>449545</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>506708</v>
+        <v>503926</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6344077081188071</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5975400898126147</v>
+        <v>0.5980660019116021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6741134814068203</v>
+        <v>0.6704123768214052</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>149858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127691</v>
+        <v>130515</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170509</v>
+        <v>169150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3427599101151753</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2920573103117868</v>
+        <v>0.2985175456139765</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3899927758828034</v>
+        <v>0.3868835113626019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -3094,19 +3094,19 @@
         <v>69993</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56064</v>
+        <v>55466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87037</v>
+        <v>85870</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2225857442230336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1782908840486238</v>
+        <v>0.1763879525857785</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2767883508092037</v>
+        <v>0.2730770573509335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>202</v>
@@ -3115,19 +3115,19 @@
         <v>219851</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>194038</v>
+        <v>193294</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>247791</v>
+        <v>245621</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2924858172398475</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2581436871581952</v>
+        <v>0.2571547550543838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3296564287613384</v>
+        <v>0.3267696729851995</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>41520</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29849</v>
+        <v>30606</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56885</v>
+        <v>56779</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09496669696224859</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06827215982228371</v>
+        <v>0.07000205780209715</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1301094070314823</v>
+        <v>0.129866819956903</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -3165,19 +3165,19 @@
         <v>13431</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7079</v>
+        <v>7270</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22263</v>
+        <v>21834</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04271246752948749</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02251292740753428</v>
+        <v>0.02311794595351732</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07079801451716396</v>
+        <v>0.06943615463197003</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -3186,19 +3186,19 @@
         <v>54952</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41333</v>
+        <v>41159</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71218</v>
+        <v>71372</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07310647464134541</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05498852503202415</v>
+        <v>0.05475699870862745</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09474721980303365</v>
+        <v>0.09495224721133046</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>116313</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97994</v>
+        <v>96373</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>138284</v>
+        <v>136688</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2790079494297457</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2350642742868531</v>
+        <v>0.2311758267215265</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3317124485182826</v>
+        <v>0.3278840011415776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -3311,19 +3311,19 @@
         <v>93097</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75116</v>
+        <v>77811</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>109981</v>
+        <v>110884</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2762169527587232</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2228682810037364</v>
+        <v>0.2308653366108619</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3263134672011863</v>
+        <v>0.3289922484780146</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>184</v>
@@ -3332,19 +3332,19 @@
         <v>209410</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>183193</v>
+        <v>185074</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>236567</v>
+        <v>238818</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2777602300894078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2429867460764222</v>
+        <v>0.2454810061661516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3137812809452959</v>
+        <v>0.3167674719920345</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>272529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>249636</v>
+        <v>251601</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>292464</v>
+        <v>293090</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6537353051512436</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5988203611138546</v>
+        <v>0.6035338892136994</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7015545982514697</v>
+        <v>0.7030553178896159</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>193</v>
@@ -3382,19 +3382,19 @@
         <v>214979</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>196942</v>
+        <v>196475</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>234327</v>
+        <v>233343</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6378395622500256</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5843252913163042</v>
+        <v>0.5829388603094374</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6952468862576757</v>
+        <v>0.6923274870014547</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>440</v>
@@ -3403,19 +3403,19 @@
         <v>487509</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>460469</v>
+        <v>456291</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>519007</v>
+        <v>514743</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6466290889193116</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6107639610827627</v>
+        <v>0.6052221473495467</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6884085663431407</v>
+        <v>0.6827521117902186</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>28038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17793</v>
+        <v>19960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38974</v>
+        <v>40913</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06725674541901074</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04268077652740843</v>
+        <v>0.04788004666647494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09348873621409191</v>
+        <v>0.09814060040397825</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3453,19 +3453,19 @@
         <v>28967</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19363</v>
+        <v>19962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40103</v>
+        <v>42614</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08594348499125125</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05745085072269951</v>
+        <v>0.05922782280944235</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1189860889934577</v>
+        <v>0.1264356419872854</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3474,19 +3474,19 @@
         <v>57005</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42830</v>
+        <v>42233</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73116</v>
+        <v>72450</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0756106809912806</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.056809552085698</v>
+        <v>0.05601801274907731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09698092575225854</v>
+        <v>0.09609767864141512</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>33607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22956</v>
+        <v>23680</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49280</v>
+        <v>48613</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05350672548654054</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03654947724548407</v>
+        <v>0.03770172074334848</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07846140072331152</v>
+        <v>0.07739878594994662</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3599,19 +3599,19 @@
         <v>8200</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3567</v>
+        <v>3270</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17523</v>
+        <v>16182</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03152186206629386</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01371230178332905</v>
+        <v>0.01257007141965386</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0673645769794107</v>
+        <v>0.06220877346183776</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -3620,19 +3620,19 @@
         <v>41806</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28828</v>
+        <v>30002</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57432</v>
+        <v>56414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04706802931572919</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03245646256705625</v>
+        <v>0.03377793235786192</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.064660325590472</v>
+        <v>0.06351420053818321</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>386619</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>358620</v>
+        <v>360731</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>409713</v>
+        <v>411354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6155567781818189</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5709787309478085</v>
+        <v>0.5743398087398047</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.652326682524204</v>
+        <v>0.654939090489281</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -3670,19 +3670,19 @@
         <v>148708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>132080</v>
+        <v>132774</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>165508</v>
+        <v>164464</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5716705592348239</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.507746320351544</v>
+        <v>0.5104175330255128</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6362526023823412</v>
+        <v>0.6322384067189679</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>505</v>
@@ -3691,19 +3691,19 @@
         <v>535327</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>507250</v>
+        <v>504502</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>565359</v>
+        <v>563056</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6027038427560215</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5710931358994777</v>
+        <v>0.5679991396346933</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6365160583417426</v>
+        <v>0.6339224660158101</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>207855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>183905</v>
+        <v>183798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>233856</v>
+        <v>231541</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3309364963316406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2928050845946893</v>
+        <v>0.2926341015038506</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.372334253101566</v>
+        <v>0.3686488328949174</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -3741,19 +3741,19 @@
         <v>103221</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87729</v>
+        <v>87630</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>119751</v>
+        <v>119590</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3968075786988823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3372512676652473</v>
+        <v>0.3368725120669039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4603522583972887</v>
+        <v>0.4597322563099245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>292</v>
@@ -3762,19 +3762,19 @@
         <v>311076</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>282837</v>
+        <v>285061</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>339636</v>
+        <v>343809</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3502281279282493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3184347411562304</v>
+        <v>0.3209385960819609</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.382382971703467</v>
+        <v>0.3870815578313322</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>44433</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30938</v>
+        <v>32741</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61162</v>
+        <v>61086</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03846112768282968</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02677970839456651</v>
+        <v>0.02834090433867878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05294196771399588</v>
+        <v>0.05287579337207868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -3887,19 +3887,19 @@
         <v>46861</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33575</v>
+        <v>34475</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61748</v>
+        <v>62652</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06121216243486395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04385800840231972</v>
+        <v>0.04503292881202258</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08065799515619854</v>
+        <v>0.08183992739328158</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -3908,19 +3908,19 @@
         <v>91294</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72926</v>
+        <v>72730</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115143</v>
+        <v>113722</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04752865943040696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03796638437093587</v>
+        <v>0.03786434230037062</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05994518377704675</v>
+        <v>0.05920527731429164</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>689381</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>653676</v>
+        <v>652813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>722570</v>
+        <v>724234</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5967303609793917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5658239075866615</v>
+        <v>0.5650768186113332</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6254588237191074</v>
+        <v>0.6268994959172846</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>503</v>
@@ -3958,19 +3958,19 @@
         <v>541636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>511895</v>
+        <v>514338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>565765</v>
+        <v>567822</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7075137859572781</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6686641592155307</v>
+        <v>0.6718550944483761</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7390315245755087</v>
+        <v>0.7417184215798198</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1149</v>
@@ -3979,19 +3979,19 @@
         <v>1231018</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1186456</v>
+        <v>1192072</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1273364</v>
+        <v>1280907</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6408836152836828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6176844429373746</v>
+        <v>0.6206081507330058</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.662929510833827</v>
+        <v>0.6668565177556538</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>421450</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>388561</v>
+        <v>390153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>458674</v>
+        <v>459267</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3648085113377786</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3363399058840445</v>
+        <v>0.3377178248216864</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3970295229933377</v>
+        <v>0.3975429111798548</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>164</v>
@@ -4029,19 +4029,19 @@
         <v>177052</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>154520</v>
+        <v>152761</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>203076</v>
+        <v>201389</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2312740516078579</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2018425432065359</v>
+        <v>0.1995439219495654</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.265269071676072</v>
+        <v>0.2630648851219808</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>559</v>
@@ -4050,19 +4050,19 @@
         <v>598502</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>557348</v>
+        <v>552684</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>642602</v>
+        <v>637232</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3115877252859103</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2901625171206403</v>
+        <v>0.2877344361512487</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3345466908403162</v>
+        <v>0.331750934545993</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>12280</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6729</v>
+        <v>5891</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22639</v>
+        <v>20850</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02405111837287386</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01317856190500106</v>
+        <v>0.01153774191139158</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04433766653431686</v>
+        <v>0.04083513310077108</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -4175,19 +4175,19 @@
         <v>15201</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8803</v>
+        <v>7691</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25373</v>
+        <v>25249</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02001430819003264</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01159042911359612</v>
+        <v>0.01012577107461419</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03340628723858841</v>
+        <v>0.03324345994518713</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -4196,19 +4196,19 @@
         <v>27482</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17582</v>
+        <v>18149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39988</v>
+        <v>41426</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02163713587628453</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01384292788670657</v>
+        <v>0.01428898464448521</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03148404574513133</v>
+        <v>0.03261573546838699</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>245660</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>223163</v>
+        <v>223743</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>268229</v>
+        <v>269963</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4811246940166486</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4370635777419562</v>
+        <v>0.4382003220771729</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.525324703425107</v>
+        <v>0.5287207641105722</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>309</v>
@@ -4246,19 +4246,19 @@
         <v>334322</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>304861</v>
+        <v>306279</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>361752</v>
+        <v>360906</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.440174764036064</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4013859609896251</v>
+        <v>0.4032539402261683</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4762901406170432</v>
+        <v>0.4751766717285412</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>549</v>
@@ -4267,19 +4267,19 @@
         <v>579982</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>545544</v>
+        <v>544648</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>614070</v>
+        <v>618230</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4566369401386313</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4295226530163065</v>
+        <v>0.4288172010480784</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4834752975114069</v>
+        <v>0.4867506934845333</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>252655</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229228</v>
+        <v>229420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>275477</v>
+        <v>276492</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4948241876104775</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4489426887516519</v>
+        <v>0.4493186930417186</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.539521214231287</v>
+        <v>0.5415079816922855</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>379</v>
@@ -4317,19 +4317,19 @@
         <v>409997</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>381807</v>
+        <v>382514</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>439151</v>
+        <v>437810</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5398109277739033</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5026950222559849</v>
+        <v>0.503625576569448</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.578195048301036</v>
+        <v>0.5764296958245951</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>615</v>
@@ -4338,19 +4338,19 @@
         <v>662652</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>626698</v>
+        <v>626010</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>697461</v>
+        <v>700349</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5217259239850841</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4934178302457138</v>
+        <v>0.4928766245733587</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.549132124702276</v>
+        <v>0.5514059322021632</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>27777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18752</v>
+        <v>18970</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37576</v>
+        <v>38497</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1040802903396444</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07026351770558134</v>
+        <v>0.07107886085803415</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.140796426955838</v>
+        <v>0.1442464208225362</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -4463,19 +4463,19 @@
         <v>64242</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50011</v>
+        <v>49923</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82120</v>
+        <v>82066</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05790979864683631</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04508142359144807</v>
+        <v>0.04500200639341997</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07402539231821757</v>
+        <v>0.0739764579325676</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>88</v>
@@ -4484,19 +4484,19 @@
         <v>92019</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>74828</v>
+        <v>73900</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>113586</v>
+        <v>111493</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0668632739144798</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05437153762248376</v>
+        <v>0.05369749513371732</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0825337737483655</v>
+        <v>0.08101287688132097</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>217991</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>204177</v>
+        <v>204374</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>230205</v>
+        <v>230261</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8168055118635292</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.765047358721324</v>
+        <v>0.7657823352471982</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.862572846092711</v>
+        <v>0.86278056404225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>421</v>
@@ -4534,19 +4534,19 @@
         <v>442028</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>409364</v>
+        <v>409082</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>474510</v>
+        <v>473419</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3984563159978781</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3690124494985358</v>
+        <v>0.3687581146369027</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4277368317938383</v>
+        <v>0.4267533498175135</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>638</v>
@@ -4555,19 +4555,19 @@
         <v>660019</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>625009</v>
+        <v>624007</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>696911</v>
+        <v>699480</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4795834394286451</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4541446620670516</v>
+        <v>0.4534165344811907</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5063905439770167</v>
+        <v>0.5082567877357103</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>21114</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12749</v>
+        <v>12946</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32697</v>
+        <v>32446</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07911419779682632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04777041412982853</v>
+        <v>0.04850960345086283</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1225148267515138</v>
+        <v>0.1215746191246862</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>564</v>
@@ -4605,19 +4605,19 @@
         <v>603081</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>569589</v>
+        <v>569888</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>639089</v>
+        <v>636730</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5436338853552856</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5134436098568598</v>
+        <v>0.5137132804017778</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5760927236047585</v>
+        <v>0.5739658633050926</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>583</v>
@@ -4626,19 +4626,19 @@
         <v>624195</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>588345</v>
+        <v>585127</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>660508</v>
+        <v>660852</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4535532866568751</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4275040178606868</v>
+        <v>0.4251656203256468</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4799391390725968</v>
+        <v>0.4801889367428622</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>480242</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>438817</v>
+        <v>441074</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>524098</v>
+        <v>526477</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1406307202827533</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1285000621060789</v>
+        <v>0.129161072459851</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1534732895299842</v>
+        <v>0.1541699791995233</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>412</v>
@@ -4751,19 +4751,19 @@
         <v>458631</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>417322</v>
+        <v>416980</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>500549</v>
+        <v>499643</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1293358925473067</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1176866516827953</v>
+        <v>0.1175900214903192</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1411569495849483</v>
+        <v>0.1409014399547649</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>849</v>
@@ -4772,19 +4772,19 @@
         <v>938873</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>879548</v>
+        <v>882665</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1002066</v>
+        <v>1000934</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1348769180315419</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1263544133846349</v>
+        <v>0.1268022174766006</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.143955096661119</v>
+        <v>0.1437925077425034</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>1962039</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1902058</v>
+        <v>1899241</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2021666</v>
+        <v>2021068</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5745501250690646</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5569859072121064</v>
+        <v>0.5561608500711521</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5920109843351239</v>
+        <v>0.5918359906873498</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1629</v>
@@ -4822,19 +4822,19 @@
         <v>1751666</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1689682</v>
+        <v>1695013</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1811927</v>
+        <v>1813395</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4939772811214821</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4764973551878007</v>
+        <v>0.4780008994758428</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5109711860965853</v>
+        <v>0.5113851583309664</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3483</v>
@@ -4843,19 +4843,19 @@
         <v>3713705</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3632635</v>
+        <v>3625109</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3792406</v>
+        <v>3799733</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5335047703500031</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5218583889967331</v>
+        <v>0.5207772790369097</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5448109034272738</v>
+        <v>0.545863471834936</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>972633</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>917945</v>
+        <v>919883</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1028312</v>
+        <v>1027723</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2848191546481821</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2688046656892703</v>
+        <v>0.2693721776720173</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3011240482581976</v>
+        <v>0.3009514496975389</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1245</v>
@@ -4893,19 +4893,19 @@
         <v>1335749</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1274898</v>
+        <v>1278059</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1394533</v>
+        <v>1392308</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3766868263312113</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3595265721702798</v>
+        <v>0.3604180837660106</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3932643080218756</v>
+        <v>0.3926368488389549</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2152</v>
@@ -4914,19 +4914,19 @@
         <v>2308381</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2228852</v>
+        <v>2227445</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2387048</v>
+        <v>2393314</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.331618311618455</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.320193272716193</v>
+        <v>0.3199910977652745</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3429194362715642</v>
+        <v>0.343819629177483</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>293546</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>273957</v>
+        <v>271539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>314324</v>
+        <v>311374</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6861313255683478</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.640343864953038</v>
+        <v>0.6346923742522871</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.734698074393472</v>
+        <v>0.7278015478094118</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>259</v>
@@ -5281,19 +5281,19 @@
         <v>271010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>254178</v>
+        <v>255360</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>287124</v>
+        <v>284869</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7808858811658551</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7323856364749916</v>
+        <v>0.7357900768551553</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8273155312827889</v>
+        <v>0.8208179236762146</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>528</v>
@@ -5302,19 +5302,19 @@
         <v>564557</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>535729</v>
+        <v>538857</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>588765</v>
+        <v>589650</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7285700501544697</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6913676918976319</v>
+        <v>0.6954039952513082</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.759811977371897</v>
+        <v>0.7609535736598777</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>117226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97581</v>
+        <v>98916</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136206</v>
+        <v>137759</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2740022312649322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2280835833353383</v>
+        <v>0.2312040337789391</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3183663517438057</v>
+        <v>0.321997078801514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -5352,19 +5352,19 @@
         <v>71442</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56221</v>
+        <v>58667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87205</v>
+        <v>87063</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2058525226318228</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1619944195536886</v>
+        <v>0.1690415830082465</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.251272604507576</v>
+        <v>0.2508614011464507</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>178</v>
@@ -5373,19 +5373,19 @@
         <v>188668</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>165359</v>
+        <v>165100</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>215312</v>
+        <v>213934</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2434793007623583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2133986400387299</v>
+        <v>0.2130646602126863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.277864187031387</v>
+        <v>0.276086134811759</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>17056</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9757</v>
+        <v>10073</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26324</v>
+        <v>26294</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03986644316672011</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02280673565272902</v>
+        <v>0.02354506390428605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06152919258041759</v>
+        <v>0.06145948664359988</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -5423,19 +5423,19 @@
         <v>4603</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11022</v>
+        <v>10752</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01326159620232206</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003387781886182595</v>
+        <v>0.00339266717516977</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03175985333164452</v>
+        <v>0.03098193255145733</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -5444,19 +5444,19 @@
         <v>21658</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13809</v>
+        <v>14023</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33139</v>
+        <v>31838</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02795064908317196</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01782138274757326</v>
+        <v>0.01809673292705238</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04276697970980026</v>
+        <v>0.04108786724537102</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>116067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96680</v>
+        <v>96874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>135457</v>
+        <v>133913</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3094427260867533</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2577556294871967</v>
+        <v>0.2582725819834142</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3611378372818496</v>
+        <v>0.3570224331379525</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -5569,19 +5569,19 @@
         <v>105693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>89889</v>
+        <v>88185</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>125258</v>
+        <v>124311</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2854565125207746</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2427732422171183</v>
+        <v>0.2381695196095371</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3382977691032267</v>
+        <v>0.3357388297152578</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>207</v>
@@ -5590,19 +5590,19 @@
         <v>221760</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>196264</v>
+        <v>197064</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>246837</v>
+        <v>247850</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2975272479054578</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2633203673992863</v>
+        <v>0.2643929785871422</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3311725491415553</v>
+        <v>0.3325312216529087</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>238762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>218105</v>
+        <v>219230</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>258957</v>
+        <v>258937</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.636556484072183</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5814839280817811</v>
+        <v>0.5844833627027871</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6903982575454899</v>
+        <v>0.6903431992768161</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>243</v>
@@ -5640,19 +5640,19 @@
         <v>256973</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>237548</v>
+        <v>238038</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>273204</v>
+        <v>274908</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6940329325342212</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6415717380802402</v>
+        <v>0.6428952895121122</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7378696739429748</v>
+        <v>0.7424732840045647</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>469</v>
@@ -5661,19 +5661,19 @@
         <v>495735</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>469415</v>
+        <v>468788</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>520691</v>
+        <v>522142</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6651086924357056</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6297963261895939</v>
+        <v>0.628955610633732</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6985909803929333</v>
+        <v>0.7005376646509984</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>20255</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12772</v>
+        <v>13473</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30718</v>
+        <v>31645</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0540007898410636</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03405153855897593</v>
+        <v>0.03592044893607958</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08189747110256784</v>
+        <v>0.08436794796344667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5711,19 +5711,19 @@
         <v>7594</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3227</v>
+        <v>3219</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15983</v>
+        <v>16665</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02051055494500427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008714852593044307</v>
+        <v>0.008694742781886741</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04316784168857539</v>
+        <v>0.04500865738639395</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -5732,19 +5732,19 @@
         <v>27849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18857</v>
+        <v>17728</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40938</v>
+        <v>40051</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03736405965883666</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02529964764288755</v>
+        <v>0.02378500870221547</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05492461295110345</v>
+        <v>0.05373554278470282</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>32438</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23051</v>
+        <v>22237</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45171</v>
+        <v>44914</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06238134645322037</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04432842027860597</v>
+        <v>0.0427635569238525</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08686803868552483</v>
+        <v>0.08637390017933277</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -5857,19 +5857,19 @@
         <v>13574</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8036</v>
+        <v>7408</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23019</v>
+        <v>22785</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08270425209025019</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04896259681021153</v>
+        <v>0.04513782561855825</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1402507564610485</v>
+        <v>0.1388253920464944</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -5878,19 +5878,19 @@
         <v>46012</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>34552</v>
+        <v>34183</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>62392</v>
+        <v>61502</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06725704749060024</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05050556452854568</v>
+        <v>0.04996606505655025</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09119932191065472</v>
+        <v>0.08989801007105716</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>359665</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>339152</v>
+        <v>339051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>380626</v>
+        <v>380416</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6916670264341015</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6522181957894621</v>
+        <v>0.652025615248439</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7319774098205163</v>
+        <v>0.7315731996744095</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -5928,19 +5928,19 @@
         <v>114135</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100831</v>
+        <v>100788</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125806</v>
+        <v>125751</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6953935605750103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6143363988213678</v>
+        <v>0.6140725610116333</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7664992714045625</v>
+        <v>0.7661673771233188</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>445</v>
@@ -5949,19 +5949,19 @@
         <v>473799</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>448200</v>
+        <v>448633</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>496679</v>
+        <v>496745</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6925610652443568</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6551431240347599</v>
+        <v>0.6557754996211803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7260049707449276</v>
+        <v>0.726102185484954</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>127894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107929</v>
+        <v>109465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146590</v>
+        <v>147319</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2459516271126782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2075570407385842</v>
+        <v>0.2105114426833571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2819046985898938</v>
+        <v>0.2833067889093823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -5999,19 +5999,19 @@
         <v>36421</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25788</v>
+        <v>26191</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49414</v>
+        <v>49134</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2219021873347395</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.157117031817608</v>
+        <v>0.1595735134156611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3010676879565873</v>
+        <v>0.2993631901728419</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>163</v>
@@ -6020,19 +6020,19 @@
         <v>164315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>141744</v>
+        <v>141545</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>186787</v>
+        <v>185927</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.240181887265043</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2071905136585751</v>
+        <v>0.2068986924990521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2730302002651371</v>
+        <v>0.2717725166156704</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>39396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27742</v>
+        <v>26736</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53541</v>
+        <v>55432</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0343972984502904</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02422184171261548</v>
+        <v>0.02334322321257285</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04674759728079245</v>
+        <v>0.04839841709349323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -6145,19 +6145,19 @@
         <v>72562</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58216</v>
+        <v>57905</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91020</v>
+        <v>91818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08828311996501501</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.070828927118105</v>
+        <v>0.07045034031264154</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.110740981323021</v>
+        <v>0.1117112092553525</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -6166,19 +6166,19 @@
         <v>111958</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92304</v>
+        <v>91758</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135827</v>
+        <v>136117</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0569109455189691</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04692033482925511</v>
+        <v>0.04664263141267994</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06904433034606342</v>
+        <v>0.0691918661513318</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>784644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>749921</v>
+        <v>754271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>815239</v>
+        <v>815318</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6850839757247141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6547667395955119</v>
+        <v>0.6585651685821156</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7117971115740489</v>
+        <v>0.7118658458307812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>591</v>
@@ -6216,19 +6216,19 @@
         <v>608194</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>580887</v>
+        <v>579580</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>631222</v>
+        <v>631129</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7399666259882385</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7067427355273922</v>
+        <v>0.7051527523547488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7679835790406816</v>
+        <v>0.7678705288989794</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1333</v>
@@ -6237,19 +6237,19 @@
         <v>1392839</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1351440</v>
+        <v>1351567</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1434852</v>
+        <v>1434940</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7080141006350131</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6869701145946004</v>
+        <v>0.6870346044822128</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7293707848651176</v>
+        <v>0.7294151713254681</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>321285</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>290404</v>
+        <v>292267</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>351497</v>
+        <v>351447</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2805187258249954</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2535559581829185</v>
+        <v>0.2551825049983304</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3068969882379904</v>
+        <v>0.3068537136405007</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>134</v>
@@ -6287,19 +6287,19 @@
         <v>141165</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>121314</v>
+        <v>119963</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>164472</v>
+        <v>164116</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1717502540467465</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1475977976772246</v>
+        <v>0.1459549172012688</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2001064772395019</v>
+        <v>0.1996733054565982</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>456</v>
@@ -6308,19 +6308,19 @@
         <v>462450</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>423371</v>
+        <v>424050</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>498622</v>
+        <v>502455</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2350749538460177</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2152096411765494</v>
+        <v>0.2155552337789951</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2534619773218438</v>
+        <v>0.2554100747690153</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>17176</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9397</v>
+        <v>10110</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28711</v>
+        <v>30528</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02790393599396408</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01526612491460206</v>
+        <v>0.01642547863201057</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04664429649987883</v>
+        <v>0.04959560247994889</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -6433,19 +6433,19 @@
         <v>25841</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17133</v>
+        <v>16718</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36793</v>
+        <v>37781</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03505021383111977</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02323792751353284</v>
+        <v>0.02267532796427112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04990461890550032</v>
+        <v>0.05124441720293826</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -6454,19 +6454,19 @@
         <v>43017</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30803</v>
+        <v>31016</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57299</v>
+        <v>56690</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0317986010915156</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02276961382237052</v>
+        <v>0.02292737359442154</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04235566478292423</v>
+        <v>0.04190538397282458</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>343629</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>319159</v>
+        <v>318673</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>369349</v>
+        <v>368741</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5582599327579513</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5185074122074151</v>
+        <v>0.5177172703156953</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6000456042456334</v>
+        <v>0.5990585071897719</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>367</v>
@@ -6504,19 +6504,19 @@
         <v>381206</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>351071</v>
+        <v>355334</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>406522</v>
+        <v>407632</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5170542782162348</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4761802873875499</v>
+        <v>0.4819628088303432</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5513917346400349</v>
+        <v>0.5528972013196668</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>686</v>
@@ -6525,19 +6525,19 @@
         <v>724835</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>688112</v>
+        <v>690693</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>761402</v>
+        <v>763367</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.535803175796867</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5086579016657397</v>
+        <v>0.5105657175462365</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5628343914070598</v>
+        <v>0.5642866801720522</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>254731</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229000</v>
+        <v>230511</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>280810</v>
+        <v>279502</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4138361312480847</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3720343702714983</v>
+        <v>0.374488476256866</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4562044776718575</v>
+        <v>0.4540797821447952</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>306</v>
@@ -6575,19 +6575,19 @@
         <v>330218</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>303839</v>
+        <v>304194</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>360689</v>
+        <v>356837</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4478955079526454</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4121168063857986</v>
+        <v>0.4125985537061361</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4892263261353657</v>
+        <v>0.4840003593295938</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>564</v>
@@ -6596,19 +6596,19 @@
         <v>584948</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>545604</v>
+        <v>548467</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>621329</v>
+        <v>620435</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4323982231116175</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4033148351445799</v>
+        <v>0.4054306974622971</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.459291454649428</v>
+        <v>0.458630381125993</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>45210</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33509</v>
+        <v>33286</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58793</v>
+        <v>58948</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1585089211736863</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1174856970133748</v>
+        <v>0.116703124936888</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2061310568472138</v>
+        <v>0.2066762338758097</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -6721,19 +6721,19 @@
         <v>60460</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47251</v>
+        <v>47405</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>77128</v>
+        <v>76397</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05605783248216493</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04381073382412776</v>
+        <v>0.04395323961316777</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0715123430257997</v>
+        <v>0.07083471939326123</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>102</v>
@@ -6742,19 +6742,19 @@
         <v>105670</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>84578</v>
+        <v>87965</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>125114</v>
+        <v>126748</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07748501271667917</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06201929044136316</v>
+        <v>0.0645027496412508</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09174287029175195</v>
+        <v>0.09294140753976915</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>226885</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>212608</v>
+        <v>213102</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>239587</v>
+        <v>240481</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7954696063196884</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7454145479190474</v>
+        <v>0.7471484022267814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8400056985430935</v>
+        <v>0.843137560050138</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>525</v>
@@ -6792,19 +6792,19 @@
         <v>550215</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>517302</v>
+        <v>515265</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>585888</v>
+        <v>585198</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5101557471215976</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4796389431511986</v>
+        <v>0.4777507129171304</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.543231414788074</v>
+        <v>0.542592189290499</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>739</v>
@@ -6813,19 +6813,19 @@
         <v>777099</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>742613</v>
+        <v>738650</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>817078</v>
+        <v>814209</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.569827845900849</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5445401008839743</v>
+        <v>0.5416340171656734</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5991434563815305</v>
+        <v>0.5970398333275777</v>
       </c>
     </row>
     <row r="26">
@@ -6842,19 +6842,19 @@
         <v>13126</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7104</v>
+        <v>7169</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21446</v>
+        <v>20812</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04602147250662518</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02490859639795233</v>
+        <v>0.02513445559538316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0751899869803139</v>
+        <v>0.07296884613091993</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>405</v>
@@ -6863,19 +6863,19 @@
         <v>467849</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>432849</v>
+        <v>433066</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>502240</v>
+        <v>502645</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4337864203962374</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4013350923461122</v>
+        <v>0.4015361676591749</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4656737846209685</v>
+        <v>0.4660490654478854</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>418</v>
@@ -6884,19 +6884,19 @@
         <v>480975</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>445139</v>
+        <v>446089</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>517813</v>
+        <v>518658</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3526871413824718</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3264095618502579</v>
+        <v>0.3271061015701098</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3796995085336025</v>
+        <v>0.3803188564053001</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>543833</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>501881</v>
+        <v>498505</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>589265</v>
+        <v>587911</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1614232600238197</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1489707641595658</v>
+        <v>0.1479688359740669</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1749086500110331</v>
+        <v>0.1745066241173854</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>526</v>
@@ -7009,19 +7009,19 @@
         <v>549140</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>504696</v>
+        <v>505749</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>590620</v>
+        <v>591785</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1560432826448555</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1434140950376535</v>
+        <v>0.1437132249412458</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1678299840777295</v>
+        <v>0.1681610933384436</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1024</v>
@@ -7030,19 +7030,19 @@
         <v>1092974</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1030818</v>
+        <v>1038485</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1155688</v>
+        <v>1155332</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1586746283530694</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1496510570747843</v>
+        <v>0.1507640763321013</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1677792593854248</v>
+        <v>0.1677276688762825</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>2070809</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2015500</v>
+        <v>2010475</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2128507</v>
+        <v>2126907</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6146678285578775</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5982507830101637</v>
+        <v>0.5967591124082797</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6317939884267815</v>
+        <v>0.6313191590023123</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1902</v>
@@ -7080,19 +7080,19 @@
         <v>1982164</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1927722</v>
+        <v>1911059</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2047097</v>
+        <v>2038471</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5632502865987348</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.547779929934891</v>
+        <v>0.5430449955181926</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5817015314083731</v>
+        <v>0.579250261945723</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3850</v>
@@ -7101,19 +7101,19 @@
         <v>4052974</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3968245</v>
+        <v>3967516</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4128726</v>
+        <v>4137227</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5883985946362581</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5760978822993664</v>
+        <v>0.5759920768590211</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5993959338357729</v>
+        <v>0.6006301290092451</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>754347</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>705159</v>
+        <v>708563</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>801823</v>
+        <v>804756</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2239089114183028</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2093088579037279</v>
+        <v>0.2103191684084876</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2380011507960194</v>
+        <v>0.2388715142533838</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>886</v>
@@ -7151,19 +7151,19 @@
         <v>987849</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>931117</v>
+        <v>936234</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1042821</v>
+        <v>1050781</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2807064307564097</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.264585349047478</v>
+        <v>0.266039631876111</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2963272510522993</v>
+        <v>0.2985890428265774</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1648</v>
@@ -7172,19 +7172,19 @@
         <v>1742196</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1672929</v>
+        <v>1670842</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1816805</v>
+        <v>1814565</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2529267770106725</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2428708145657408</v>
+        <v>0.2425678380155004</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2637583332379529</v>
+        <v>0.2634330504672466</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>403419</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>379920</v>
+        <v>379932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>423155</v>
+        <v>425372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7342599880855472</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.691489990132505</v>
+        <v>0.6915123137479251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7701816670299526</v>
+        <v>0.7742163671232861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>549</v>
@@ -7539,19 +7539,19 @@
         <v>386062</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>368436</v>
+        <v>369390</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>401058</v>
+        <v>402692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7904444278189887</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7543563269552077</v>
+        <v>0.7563089206490333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8211478089860663</v>
+        <v>0.824494111176679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>954</v>
@@ -7560,19 +7560,19 @@
         <v>789480</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>759672</v>
+        <v>762032</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>814080</v>
+        <v>817967</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7607007583108787</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7319801502425966</v>
+        <v>0.7342532635052714</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7844046908763719</v>
+        <v>0.7881498851439239</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>134330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114494</v>
+        <v>113253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154958</v>
+        <v>157787</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2444933108288678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2083894995339499</v>
+        <v>0.2061315233093542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2820374086992793</v>
+        <v>0.2871876149020632</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>122</v>
@@ -7610,19 +7610,19 @@
         <v>92448</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77852</v>
+        <v>77408</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109333</v>
+        <v>109132</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1892827330997724</v>
+        <v>0.1892827330997723</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1593984302703426</v>
+        <v>0.1584884621076053</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2238543898673196</v>
+        <v>0.2234432428689248</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>254</v>
@@ -7631,19 +7631,19 @@
         <v>226778</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>202414</v>
+        <v>199668</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>258082</v>
+        <v>253910</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2185108465261416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.195035166908207</v>
+        <v>0.1923895254786129</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2486739173545393</v>
+        <v>0.2446542712272872</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>11673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6797</v>
+        <v>6292</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19719</v>
+        <v>19230</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0212467010855851</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01237154354054253</v>
+        <v>0.01145120526776213</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03589019454749458</v>
+        <v>0.03499983310556439</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -7681,19 +7681,19 @@
         <v>9901</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5253</v>
+        <v>5454</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16934</v>
+        <v>16969</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02027283908123895</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01075519067963626</v>
+        <v>0.01116638120421429</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03467078148730478</v>
+        <v>0.03474263232094613</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -7702,19 +7702,19 @@
         <v>21575</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15260</v>
+        <v>14244</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32240</v>
+        <v>30692</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02078839516297979</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01470420086556749</v>
+        <v>0.0137242848359822</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03106490356379659</v>
+        <v>0.02957318668076584</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>133446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>112966</v>
+        <v>113648</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>152898</v>
+        <v>156545</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2773790855139024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2348100228859943</v>
+        <v>0.2362277926769776</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3178132519585547</v>
+        <v>0.3253923679620627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>222</v>
@@ -7827,19 +7827,19 @@
         <v>159600</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>142212</v>
+        <v>143626</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>175904</v>
+        <v>177372</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3771764026372696</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.336084506806465</v>
+        <v>0.3394272735030507</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.415709026945893</v>
+        <v>0.4191775127385379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>350</v>
@@ -7848,19 +7848,19 @@
         <v>293045</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>265698</v>
+        <v>266447</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>321159</v>
+        <v>319456</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3240797327737606</v>
+        <v>0.3240797327737605</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2938362055927952</v>
+        <v>0.2946649668945202</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3551712527912915</v>
+        <v>0.3532878086937365</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>329968</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>309811</v>
+        <v>306992</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>350165</v>
+        <v>349858</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6858686591909409</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6439698111330717</v>
+        <v>0.6381112571636748</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7278503894599421</v>
+        <v>0.7272115962499793</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>351</v>
@@ -7898,19 +7898,19 @@
         <v>253282</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>236537</v>
+        <v>235420</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>271390</v>
+        <v>269321</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5985734668846513</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5589992930656928</v>
+        <v>0.5563601169739778</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.641367700839785</v>
+        <v>0.6364778997432496</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>679</v>
@@ -7919,19 +7919,19 @@
         <v>583250</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>554911</v>
+        <v>557315</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>610696</v>
+        <v>610927</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.6450184429638061</v>
+        <v>0.6450184429638058</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.613678306772641</v>
+        <v>0.6163368006350078</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6753706277617371</v>
+        <v>0.6756268611920231</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>17681</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11721</v>
+        <v>11386</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27610</v>
+        <v>26725</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03675225529515658</v>
+        <v>0.03675225529515657</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02436354219940201</v>
+        <v>0.02366621267370993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0573904725406268</v>
+        <v>0.05555021804762611</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -7969,19 +7969,19 @@
         <v>10261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6244</v>
+        <v>6396</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16330</v>
+        <v>16328</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02425013047807899</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01475685624782251</v>
+        <v>0.01511642323871828</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03859120092502346</v>
+        <v>0.03858804548460865</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -7990,19 +7990,19 @@
         <v>27943</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20292</v>
+        <v>19984</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37803</v>
+        <v>38609</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03090182426243347</v>
+        <v>0.03090182426243346</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02244128841758411</v>
+        <v>0.02209997224230533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04180596235075605</v>
+        <v>0.04269783242046146</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>34934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23135</v>
+        <v>23475</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49699</v>
+        <v>51297</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07407354319781272</v>
+        <v>0.0740735431978127</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04905460858617301</v>
+        <v>0.04977586573557371</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1053802528627453</v>
+        <v>0.1087695973672538</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -8115,19 +8115,19 @@
         <v>15573</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9627</v>
+        <v>9880</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23884</v>
+        <v>24580</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08305715391895274</v>
+        <v>0.08305715391895276</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05134441630816611</v>
+        <v>0.05269348670486336</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1273808372090245</v>
+        <v>0.1310963354862698</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>52</v>
@@ -8136,19 +8136,19 @@
         <v>50507</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37876</v>
+        <v>37869</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>67902</v>
+        <v>66594</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07662911840509254</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0574659203585851</v>
+        <v>0.05745411458147744</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1030208451489031</v>
+        <v>0.1010363044871367</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>359856</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>340168</v>
+        <v>340554</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>379176</v>
+        <v>378244</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7630340959750834</v>
+        <v>0.7630340959750833</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7212868693450718</v>
+        <v>0.7221065030508578</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8039989777447307</v>
+        <v>0.8020245021643215</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>194</v>
@@ -8186,19 +8186,19 @@
         <v>129932</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>119980</v>
+        <v>119826</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>139791</v>
+        <v>139924</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6929799756966774</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6399018648599311</v>
+        <v>0.6390822042010519</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7455659966374421</v>
+        <v>0.7462753054548386</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>557</v>
@@ -8207,19 +8207,19 @@
         <v>489788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>466066</v>
+        <v>467563</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>511079</v>
+        <v>510535</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7431057421640698</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7071147598431997</v>
+        <v>0.7093864973948231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.775408626473918</v>
+        <v>0.7745839975142953</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>76822</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61999</v>
+        <v>61629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93969</v>
+        <v>92595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1628923608271039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1314620371150059</v>
+        <v>0.1306762855866145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1992501898778456</v>
+        <v>0.196337123044157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>74</v>
@@ -8257,19 +8257,19 @@
         <v>41992</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33633</v>
+        <v>33228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51041</v>
+        <v>50763</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2239628703843699</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1793765161005542</v>
+        <v>0.1772207470948557</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2722235940489125</v>
+        <v>0.2707413245799002</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>168</v>
@@ -8278,19 +8278,19 @@
         <v>118814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101000</v>
+        <v>102617</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137993</v>
+        <v>137710</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1802651394308377</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1532370474227203</v>
+        <v>0.1556908322898829</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2093634427175732</v>
+        <v>0.208934160377151</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>65028</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49188</v>
+        <v>48865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83973</v>
+        <v>85643</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05761996953095105</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04358438612473604</v>
+        <v>0.04329801378015069</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07440715584696531</v>
+        <v>0.07588688924165493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>99</v>
@@ -8403,19 +8403,19 @@
         <v>75023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60763</v>
+        <v>61280</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89936</v>
+        <v>92317</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08723709145090316</v>
+        <v>0.08723709145090312</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07065492847706696</v>
+        <v>0.07125657272757804</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1045778366399643</v>
+        <v>0.1073461893365645</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>156</v>
@@ -8424,19 +8424,19 @@
         <v>140051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117873</v>
+        <v>117586</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>164909</v>
+        <v>165684</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07042849186020121</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05927577295531501</v>
+        <v>0.05913155330618336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08292892985855331</v>
+        <v>0.08331885317064175</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>798827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>763733</v>
+        <v>767034</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>828677</v>
+        <v>829777</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7078258409838888</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6767298797612277</v>
+        <v>0.6796549997068917</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.734275451894181</v>
+        <v>0.7352504168728803</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>920</v>
@@ -8474,19 +8474,19 @@
         <v>665702</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>647544</v>
+        <v>643785</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>687891</v>
+        <v>684786</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7740812121995841</v>
+        <v>0.7740812121995843</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7529663302960228</v>
+        <v>0.7485957320119873</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.799883020300227</v>
+        <v>0.7962717441129119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1657</v>
@@ -8495,19 +8495,19 @@
         <v>1464529</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1423984</v>
+        <v>1428115</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1497819</v>
+        <v>1500343</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7364793139291211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7160902394636276</v>
+        <v>0.7181675016281364</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7532203324392647</v>
+        <v>0.7544892631255701</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>264709</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>237238</v>
+        <v>236930</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>298010</v>
+        <v>291466</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2345541894851601</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2102120508813202</v>
+        <v>0.209939492137313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2640611902058223</v>
+        <v>0.2582627178778392</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>209</v>
@@ -8545,19 +8545,19 @@
         <v>119265</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>104670</v>
+        <v>104284</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>134910</v>
+        <v>136049</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1386816963495127</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1217112626831924</v>
+        <v>0.1212615918079961</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1568736755679989</v>
+        <v>0.1581986334479379</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>530</v>
@@ -8566,19 +8566,19 @@
         <v>383974</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>355298</v>
+        <v>352951</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>416561</v>
+        <v>416380</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1930921942106777</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1786714668046598</v>
+        <v>0.1774914732396512</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2094792939961747</v>
+        <v>0.2093881580656077</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>14353</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8413</v>
+        <v>7811</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24471</v>
+        <v>25398</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02537323895487102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01487262293282419</v>
+        <v>0.01380828921387404</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04326149324407871</v>
+        <v>0.04490038175503051</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -8691,19 +8691,19 @@
         <v>24180</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16407</v>
+        <v>15995</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34907</v>
+        <v>35717</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02912577793777732</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01976312295251994</v>
+        <v>0.0192663354080086</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04204710116036958</v>
+        <v>0.04302241926502003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>45</v>
@@ -8712,19 +8712,19 @@
         <v>38532</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27290</v>
+        <v>28697</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52544</v>
+        <v>52763</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02760508497125472</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01955107501367551</v>
+        <v>0.02055908001587055</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03764329014178459</v>
+        <v>0.03779980518141724</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>355946</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>333049</v>
+        <v>326725</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>378436</v>
+        <v>377690</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6292608129587657</v>
+        <v>0.6292608129587658</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5887817224453225</v>
+        <v>0.5776021072219737</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6690190818314943</v>
+        <v>0.6677007719927136</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>725</v>
@@ -8762,19 +8762,19 @@
         <v>504918</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>480914</v>
+        <v>480066</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>527644</v>
+        <v>526915</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.6081973792587037</v>
+        <v>0.6081973792587035</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5792829250689217</v>
+        <v>0.5782613661400466</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6355716642350996</v>
+        <v>0.6346931996462472</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1031</v>
@@ -8783,19 +8783,19 @@
         <v>860865</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>830392</v>
+        <v>825207</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>897615</v>
+        <v>893883</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6167332041027381</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5949023707919715</v>
+        <v>0.5911874539186763</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6430617417377154</v>
+        <v>0.6403877577358756</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>195359</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>172936</v>
+        <v>173281</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>217968</v>
+        <v>221110</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3453659480863631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3057257399659584</v>
+        <v>0.3063348832685351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3853345980765153</v>
+        <v>0.3908900317940289</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>533</v>
@@ -8833,19 +8833,19 @@
         <v>301090</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>278007</v>
+        <v>277996</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>323199</v>
+        <v>322758</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3626768428035192</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3348717913831223</v>
+        <v>0.334858852211523</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3893081194793295</v>
+        <v>0.3887773385548211</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>758</v>
@@ -8854,19 +8854,19 @@
         <v>496449</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>463208</v>
+        <v>465200</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>527697</v>
+        <v>529667</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3556617109260072</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3318473792886779</v>
+        <v>0.3332748801695519</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3780483908189404</v>
+        <v>0.37945982232047</v>
       </c>
     </row>
     <row r="23">
@@ -8958,19 +8958,19 @@
         <v>31158</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18581</v>
+        <v>18708</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49343</v>
+        <v>50326</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1313410157122724</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07832588694164695</v>
+        <v>0.07886027838938683</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2079972041647809</v>
+        <v>0.2121419998616984</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -8979,19 +8979,19 @@
         <v>47226</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34287</v>
+        <v>34256</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63751</v>
+        <v>64537</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05604963684610823</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04069303319115893</v>
+        <v>0.04065706198983601</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0756623884517523</v>
+        <v>0.07659584514407947</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>63</v>
@@ -9000,19 +9000,19 @@
         <v>78383</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>59852</v>
+        <v>61179</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>101830</v>
+        <v>103654</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07259093905757404</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05542917264720868</v>
+        <v>0.05665820301174169</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09430499512468525</v>
+        <v>0.09599411869857538</v>
       </c>
     </row>
     <row r="25">
@@ -9029,19 +9029,19 @@
         <v>200121</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>182346</v>
+        <v>181065</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>213525</v>
+        <v>213885</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8435827428996072</v>
+        <v>0.8435827428996071</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7686535353408447</v>
+        <v>0.7632510069553387</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9000838211540997</v>
+        <v>0.9016029152479411</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>546</v>
@@ -9050,19 +9050,19 @@
         <v>466540</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>440800</v>
+        <v>438935</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>494995</v>
+        <v>492125</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5537129305740069</v>
+        <v>0.5537129305740068</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5231632773632354</v>
+        <v>0.5209502401107324</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5874848191858029</v>
+        <v>0.5840788209844048</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>634</v>
@@ -9071,19 +9071,19 @@
         <v>666661</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>634710</v>
+        <v>634051</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>700095</v>
+        <v>699774</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6173965055047007</v>
+        <v>0.6173965055047008</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.587806323856467</v>
+        <v>0.5871960398931504</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.648359551787049</v>
+        <v>0.6480621916679623</v>
       </c>
     </row>
     <row r="26">
@@ -9100,19 +9100,19 @@
         <v>5949</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2435</v>
+        <v>2342</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13466</v>
+        <v>13174</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02507624138812052</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01026624078492348</v>
+        <v>0.009872323413000848</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0567655080380695</v>
+        <v>0.05553211869990071</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>564</v>
@@ -9121,19 +9121,19 @@
         <v>328801</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>301411</v>
+        <v>304430</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>352156</v>
+        <v>355187</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3902374325798849</v>
+        <v>0.3902374325798848</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3577302190392577</v>
+        <v>0.3613134405059057</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4179563444440411</v>
+        <v>0.4215535319187248</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>571</v>
@@ -9142,19 +9142,19 @@
         <v>334750</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>304762</v>
+        <v>307529</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>362771</v>
+        <v>362187</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3100125554377252</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2822411783239019</v>
+        <v>0.2848030308553395</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3359627572576079</v>
+        <v>0.3354223385411627</v>
       </c>
     </row>
     <row r="27">
@@ -9246,19 +9246,19 @@
         <v>682336</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>633258</v>
+        <v>637806</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>737489</v>
+        <v>743804</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1987245301732138</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1844310184554387</v>
+        <v>0.1857555104571717</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2147873937507393</v>
+        <v>0.2166265263890262</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>968</v>
@@ -9267,19 +9267,19 @@
         <v>707663</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>667680</v>
+        <v>668661</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>748188</v>
+        <v>751459</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1948519678316589</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1838430605637838</v>
+        <v>0.1841130996373532</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2060103971162642</v>
+        <v>0.2069111770611249</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1620</v>
@@ -9288,19 +9288,19 @@
         <v>1389999</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1326437</v>
+        <v>1324329</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1461786</v>
+        <v>1449514</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1967339270047377</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1877377008265398</v>
+        <v>0.1874393408965539</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2068943776438161</v>
+        <v>0.2051573959025987</v>
       </c>
     </row>
     <row r="29">
@@ -9317,19 +9317,19 @@
         <v>2179048</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2114954</v>
+        <v>2121524</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2240522</v>
+        <v>2239527</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6346289688824722</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6159619817106003</v>
+        <v>0.6178756172857444</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6525326607792533</v>
+        <v>0.6522428465954829</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2858</v>
@@ -9338,19 +9338,19 @@
         <v>2112822</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2064519</v>
+        <v>2058799</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2166945</v>
+        <v>2162460</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5817568796763292</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5684567847119841</v>
+        <v>0.5668816665073385</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.596659215876584</v>
+        <v>0.5954244133640846</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4812</v>
@@ -9359,19 +9359,19 @@
         <v>4291870</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4210258</v>
+        <v>4204672</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4367292</v>
+        <v>4368632</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6074512661071454</v>
+        <v>0.6074512661071453</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5959002699384593</v>
+        <v>0.5951097331098387</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6181262367745143</v>
+        <v>0.6183158492255055</v>
       </c>
     </row>
     <row r="30">
@@ -9388,19 +9388,19 @@
         <v>572194</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>533595</v>
+        <v>528528</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>620283</v>
+        <v>617319</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1666465009443141</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1554050807599901</v>
+        <v>0.1539291190879332</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1806521589189654</v>
+        <v>0.1797889249729729</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1412</v>
@@ -9409,19 +9409,19 @@
         <v>811311</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>771655</v>
+        <v>772614</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>852369</v>
+        <v>851370</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2233911524920119</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2124719354190767</v>
+        <v>0.212736045099635</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2346963666856832</v>
+        <v>0.2344211747337117</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2097</v>
@@ -9430,19 +9430,19 @@
         <v>1383505</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1328981</v>
+        <v>1329680</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1447158</v>
+        <v>1452291</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.195814806888117</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1880978220403865</v>
+        <v>0.1881967630421831</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.204824024954795</v>
+        <v>0.2055505515309957</v>
       </c>
     </row>
     <row r="31">
